--- a/biology/Zoologie/Acheilognathus_elongatus/Acheilognathus_elongatus.xlsx
+++ b/biology/Zoologie/Acheilognathus_elongatus/Acheilognathus_elongatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acheilognathus elongatus est une espèce de poissons de la famille des Cyprinidés. Elle est endémique du lac Dian dans la province du Yunnan en Chine.
 </t>
@@ -511,9 +523,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est menacée par l'introduction d'espèces proches dans le lac : Acheilognathus macropterus, A. taenianalis, A. chankaensis et Rhodeus ocellatus. Ces poissons partagent le même habitat que Acheilognathus elongatus et entre en compétition avec elle. L'espèce est également menacée par la pollution du lac[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est menacée par l'introduction d'espèces proches dans le lac : Acheilognathus macropterus, A. taenianalis, A. chankaensis et Rhodeus ocellatus. Ces poissons partagent le même habitat que Acheilognathus elongatus et entre en compétition avec elle. L'espèce est également menacée par la pollution du lac.
 </t>
         </is>
       </c>
